--- a/matrice_covarianze_fertilita.xlsx
+++ b/matrice_covarianze_fertilita.xlsx
@@ -1,21 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migli\Desktop\Università\Magistrale\Statistica e Analisi dei Dati\progetto_statistica\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F81067-375A-487E-A57C-792C80558B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,17 +106,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +162,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +196,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +231,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,529 +407,543 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>0.1587926870748299</v>
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>2010</v>
       </c>
       <c r="B2">
-        <v>0.1575035714285714</v>
+        <v>0.15879268707482991</v>
       </c>
       <c r="C2">
-        <v>0.153159906462585</v>
+        <v>0.15750357142857141</v>
       </c>
       <c r="D2">
-        <v>0.1501681547619048</v>
+        <v>0.15315990646258501</v>
       </c>
       <c r="E2">
-        <v>0.1405832908163265</v>
+        <v>0.15016815476190479</v>
       </c>
       <c r="F2">
-        <v>0.1326473214285714</v>
+        <v>0.14058329081632651</v>
       </c>
       <c r="G2">
+        <v>0.13264732142857141</v>
+      </c>
+      <c r="H2">
         <v>0.1228795068027211</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.1194000425170068</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.1174255527210884</v>
       </c>
-      <c r="J2">
-        <v>0.1145845663265306</v>
-      </c>
       <c r="K2">
+        <v>0.11458456632653061</v>
+      </c>
+      <c r="L2">
         <v>0.1079903911564626</v>
       </c>
-      <c r="L2">
-        <v>0.1083335884353741</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0.1575035714285714</v>
+      <c r="M2">
+        <v>0.10833358843537411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2011</v>
       </c>
       <c r="B3">
-        <v>0.1582125</v>
+        <v>0.15750357142857141</v>
       </c>
       <c r="C3">
-        <v>0.153964880952381</v>
+        <v>0.15821250000000001</v>
       </c>
       <c r="D3">
+        <v>0.15396488095238101</v>
+      </c>
+      <c r="E3">
         <v>0.15159375</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.1421050595238095</v>
       </c>
-      <c r="F3">
-        <v>0.1344708333333333</v>
-      </c>
       <c r="G3">
-        <v>0.1246220238095238</v>
+        <v>0.13447083333333329</v>
       </c>
       <c r="H3">
+        <v>0.12462202380952379</v>
+      </c>
+      <c r="I3">
         <v>0.1209470238095238</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.1185738095238095</v>
       </c>
-      <c r="J3">
-        <v>0.1154220238095238</v>
-      </c>
       <c r="K3">
+        <v>0.11542202380952379</v>
+      </c>
+      <c r="L3">
         <v>0.1084267857142857</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.1078738095238095</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4">
-        <v>0.153159906462585</v>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2012</v>
       </c>
       <c r="B4">
-        <v>0.153964880952381</v>
+        <v>0.15315990646258501</v>
       </c>
       <c r="C4">
-        <v>0.1520544217687075</v>
+        <v>0.15396488095238101</v>
       </c>
       <c r="D4">
-        <v>0.1500252976190476</v>
+        <v>0.15205442176870751</v>
       </c>
       <c r="E4">
-        <v>0.1416468962585034</v>
+        <v>0.15002529761904759</v>
       </c>
       <c r="F4">
-        <v>0.1341294642857143</v>
+        <v>0.14164689625850341</v>
       </c>
       <c r="G4">
+        <v>0.13412946428571429</v>
+      </c>
+      <c r="H4">
         <v>0.1245456632653061</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.1207843537414966</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.1175070153061224</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.114131675170068</v>
       </c>
-      <c r="K4">
-        <v>0.106581887755102</v>
-      </c>
       <c r="L4">
-        <v>0.1055894557823129</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>0.1501681547619048</v>
+        <v>0.10658188775510199</v>
+      </c>
+      <c r="M4">
+        <v>0.10558945578231289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>2013</v>
       </c>
       <c r="B5">
+        <v>0.15016815476190479</v>
+      </c>
+      <c r="C5">
         <v>0.15159375</v>
       </c>
-      <c r="C5">
-        <v>0.1500252976190476</v>
-      </c>
       <c r="D5">
+        <v>0.15002529761904759</v>
+      </c>
+      <c r="E5">
         <v>0.1493791666666667</v>
       </c>
-      <c r="E5">
-        <v>0.1415654761904762</v>
-      </c>
       <c r="F5">
+        <v>0.14156547619047621</v>
+      </c>
+      <c r="G5">
         <v>0.1344104166666667</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.1250782738095238</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.1213491071428571</v>
       </c>
-      <c r="I5">
-        <v>0.1182363095238095</v>
-      </c>
       <c r="J5">
+        <v>0.11823630952380949</v>
+      </c>
+      <c r="K5">
         <v>0.1147699404761905</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.107535119047619</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.1065779761904762</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6">
-        <v>0.1405832908163265</v>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>2014</v>
       </c>
       <c r="B6">
+        <v>0.14058329081632651</v>
+      </c>
+      <c r="C6">
         <v>0.1421050595238095</v>
       </c>
-      <c r="C6">
-        <v>0.1416468962585034</v>
-      </c>
       <c r="D6">
-        <v>0.1415654761904762</v>
+        <v>0.14164689625850341</v>
       </c>
       <c r="E6">
+        <v>0.14156547619047621</v>
+      </c>
+      <c r="F6">
         <v>0.1359999149659864</v>
       </c>
-      <c r="F6">
-        <v>0.1295821428571428</v>
-      </c>
       <c r="G6">
+        <v>0.12958214285714281</v>
+      </c>
+      <c r="H6">
         <v>0.1216569302721088</v>
       </c>
-      <c r="H6">
-        <v>0.1187584183673469</v>
-      </c>
       <c r="I6">
+        <v>0.11875841836734689</v>
+      </c>
+      <c r="J6">
         <v>0.1157031887755102</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.1125941326530612</v>
       </c>
-      <c r="K6">
-        <v>0.1054849489795918</v>
-      </c>
       <c r="L6">
+        <v>0.10548494897959181</v>
+      </c>
+      <c r="M6">
         <v>0.1044317602040816</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7">
-        <v>0.1326473214285714</v>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>2015</v>
       </c>
       <c r="B7">
-        <v>0.1344708333333333</v>
+        <v>0.13264732142857141</v>
       </c>
       <c r="C7">
-        <v>0.1341294642857143</v>
+        <v>0.13447083333333329</v>
       </c>
       <c r="D7">
+        <v>0.13412946428571429</v>
+      </c>
+      <c r="E7">
         <v>0.1344104166666667</v>
       </c>
-      <c r="E7">
-        <v>0.1295821428571428</v>
-      </c>
       <c r="F7">
+        <v>0.12958214285714281</v>
+      </c>
+      <c r="G7">
         <v>0.125025</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.1178241071428571</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.1150803571428571</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.1126425595238095</v>
       </c>
-      <c r="J7">
-        <v>0.1097011904761905</v>
-      </c>
       <c r="K7">
+        <v>0.10970119047619049</v>
+      </c>
+      <c r="L7">
         <v>0.1029122023809524</v>
       </c>
-      <c r="L7">
-        <v>0.1017488095238095</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
+      <c r="M7">
+        <v>0.10174880952380951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B8">
         <v>0.1228795068027211</v>
       </c>
-      <c r="B8">
-        <v>0.1246220238095238</v>
-      </c>
       <c r="C8">
+        <v>0.12462202380952379</v>
+      </c>
+      <c r="D8">
         <v>0.1245456632653061</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.1250782738095238</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.1216569302721088</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.1178241071428571</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.1131737244897959</v>
       </c>
-      <c r="H8">
-        <v>0.1115201530612245</v>
-      </c>
       <c r="I8">
+        <v>0.11152015306122449</v>
+      </c>
+      <c r="J8">
         <v>0.1092744897959184</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.1065906887755102</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.1002079081632653</v>
       </c>
-      <c r="L8">
-        <v>0.09926466836734693</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
+      <c r="M8">
+        <v>9.9264668367346931E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B9">
         <v>0.1194000425170068</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>0.1209470238095238</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.1207843537414966</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.1213491071428571</v>
       </c>
-      <c r="E9">
-        <v>0.1187584183673469</v>
-      </c>
       <c r="F9">
+        <v>0.11875841836734689</v>
+      </c>
+      <c r="G9">
         <v>0.1150803571428571</v>
       </c>
-      <c r="G9">
-        <v>0.1115201530612245</v>
-      </c>
       <c r="H9">
-        <v>0.112104081632653</v>
+        <v>0.11152015306122449</v>
       </c>
       <c r="I9">
-        <v>0.1107759778911565</v>
+        <v>0.11210408163265299</v>
       </c>
       <c r="J9">
-        <v>0.1088350340136054</v>
+        <v>0.11077597789115649</v>
       </c>
       <c r="K9">
+        <v>0.10883503401360541</v>
+      </c>
+      <c r="L9">
         <v>0.1026504676870748</v>
       </c>
-      <c r="L9">
-        <v>0.1016744897959184</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
+      <c r="M9">
+        <v>0.10167448979591839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B10">
         <v>0.1174255527210884</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>0.1185738095238095</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.1175070153061224</v>
       </c>
-      <c r="D10">
-        <v>0.1182363095238095</v>
-      </c>
       <c r="E10">
+        <v>0.11823630952380949</v>
+      </c>
+      <c r="F10">
         <v>0.1157031887755102</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.1126425595238095</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.1092744897959184</v>
       </c>
-      <c r="H10">
-        <v>0.1107759778911565</v>
-      </c>
       <c r="I10">
+        <v>0.11077597789115649</v>
+      </c>
+      <c r="J10">
         <v>0.112356462585034</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.1111866921768707</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.1063914965986394</v>
       </c>
-      <c r="L10">
-        <v>0.1063037840136054</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>0.1145845663265306</v>
+      <c r="M10">
+        <v>0.10630378401360541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>2019</v>
       </c>
       <c r="B11">
-        <v>0.1154220238095238</v>
+        <v>0.11458456632653061</v>
       </c>
       <c r="C11">
+        <v>0.11542202380952379</v>
+      </c>
+      <c r="D11">
         <v>0.114131675170068</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.1147699404761905</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.1125941326530612</v>
       </c>
-      <c r="F11">
-        <v>0.1097011904761905</v>
-      </c>
       <c r="G11">
+        <v>0.10970119047619049</v>
+      </c>
+      <c r="H11">
         <v>0.1065906887755102</v>
       </c>
-      <c r="H11">
-        <v>0.1088350340136054</v>
-      </c>
       <c r="I11">
+        <v>0.10883503401360541</v>
+      </c>
+      <c r="J11">
         <v>0.1111866921768707</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.1112118197278911</v>
       </c>
-      <c r="K11">
-        <v>0.1069114795918367</v>
-      </c>
       <c r="L11">
-        <v>0.1072227040816326</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
+        <v>0.10691147959183669</v>
+      </c>
+      <c r="M11">
+        <v>0.10722270408163261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B12">
         <v>0.1079903911564626</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>0.1084267857142857</v>
       </c>
-      <c r="C12">
-        <v>0.106581887755102</v>
-      </c>
       <c r="D12">
+        <v>0.10658188775510199</v>
+      </c>
+      <c r="E12">
         <v>0.107535119047619</v>
       </c>
-      <c r="E12">
-        <v>0.1054849489795918</v>
-      </c>
       <c r="F12">
+        <v>0.10548494897959181</v>
+      </c>
+      <c r="G12">
         <v>0.1029122023809524</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.1002079081632653</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.1026504676870748</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.1063914965986394</v>
       </c>
-      <c r="J12">
-        <v>0.1069114795918367</v>
-      </c>
       <c r="K12">
-        <v>0.1050734693877551</v>
+        <v>0.10691147959183669</v>
       </c>
       <c r="L12">
-        <v>0.1064194727891156</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>0.1083335884353741</v>
+        <v>0.10507346938775509</v>
+      </c>
+      <c r="M12">
+        <v>0.10641947278911559</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>2021</v>
       </c>
       <c r="B13">
+        <v>0.10833358843537411</v>
+      </c>
+      <c r="C13">
         <v>0.1078738095238095</v>
       </c>
-      <c r="C13">
-        <v>0.1055894557823129</v>
-      </c>
       <c r="D13">
+        <v>0.10558945578231289</v>
+      </c>
+      <c r="E13">
         <v>0.1065779761904762</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.1044317602040816</v>
       </c>
-      <c r="F13">
-        <v>0.1017488095238095</v>
-      </c>
       <c r="G13">
-        <v>0.09926466836734693</v>
+        <v>0.10174880952380951</v>
       </c>
       <c r="H13">
-        <v>0.1016744897959184</v>
+        <v>9.9264668367346931E-2</v>
       </c>
       <c r="I13">
-        <v>0.1063037840136054</v>
+        <v>0.10167448979591839</v>
       </c>
       <c r="J13">
-        <v>0.1072227040816326</v>
+        <v>0.10630378401360541</v>
       </c>
       <c r="K13">
-        <v>0.1064194727891156</v>
+        <v>0.10722270408163261</v>
       </c>
       <c r="L13">
-        <v>0.1109469387755102</v>
+        <v>0.10641947278911559</v>
+      </c>
+      <c r="M13">
+        <v>0.11094693877551021</v>
       </c>
     </row>
   </sheetData>
